--- a/Diagrams.xlsx
+++ b/Diagrams.xlsx
@@ -5,17 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lab Infor\Laravel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamil\Documents\GitHub\laravel_monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10428" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10428" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="1" r:id="rId1"/>
     <sheet name="Use Case" sheetId="2" r:id="rId2"/>
-    <sheet name="Use Case Naration" sheetId="3" r:id="rId3"/>
+    <sheet name="Use Case (English)" sheetId="5" r:id="rId3"/>
+    <sheet name="Use Case Naration" sheetId="3" r:id="rId4"/>
+    <sheet name="Use Case Naration (English)" sheetId="6" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="166">
   <si>
     <t>Action</t>
   </si>
@@ -317,6 +322,213 @@
   </si>
   <si>
     <t>Sistem membuat dan menampilkan laporan pada waktu yang diinginkan</t>
+  </si>
+  <si>
+    <t>See purchase PO data</t>
+  </si>
+  <si>
+    <t>See purchase stock up's proof data</t>
+  </si>
+  <si>
+    <t>See pre-production PO</t>
+  </si>
+  <si>
+    <t>See pre-production stock up's proof data</t>
+  </si>
+  <si>
+    <t>See FB - SKB PO data</t>
+  </si>
+  <si>
+    <t>See FB - SKB stock up's proof data</t>
+  </si>
+  <si>
+    <t>See SKB - CMT PO data</t>
+  </si>
+  <si>
+    <t>See SKB - CMT stock up's proof data</t>
+  </si>
+  <si>
+    <t>See PO detail</t>
+  </si>
+  <si>
+    <t>Delete PO data</t>
+  </si>
+  <si>
+    <t>Edit PO data</t>
+  </si>
+  <si>
+    <t>See stock up's proof detail</t>
+  </si>
+  <si>
+    <t>Delete stock up's proof data</t>
+  </si>
+  <si>
+    <t>Edit stock up's proof data</t>
+  </si>
+  <si>
+    <t>Add data</t>
+  </si>
+  <si>
+    <t>See material stock</t>
+  </si>
+  <si>
+    <t>See production stock</t>
+  </si>
+  <si>
+    <t>Create report</t>
+  </si>
+  <si>
+    <t>System creates and shows the report for the desired period</t>
+  </si>
+  <si>
+    <t>Admin clicks on "Tampilkan laporan" button</t>
+  </si>
+  <si>
+    <t>Admin enters the desired period</t>
+  </si>
+  <si>
+    <t>Admin chooses "Laporan" menu</t>
+  </si>
+  <si>
+    <t>Admin has logged in to the system</t>
+  </si>
+  <si>
+    <t>Product stock data shoed</t>
+  </si>
+  <si>
+    <t>Admin chooses "Produk" subemenu</t>
+  </si>
+  <si>
+    <t>Admin chooses "Stock Produksi" menu</t>
+  </si>
+  <si>
+    <t>Material stock data showed</t>
+  </si>
+  <si>
+    <t>Admin chooses "Bahan Baku" submenu</t>
+  </si>
+  <si>
+    <t>A new data added the table matching the chosen transaction from either PO or stock up's proof</t>
+  </si>
+  <si>
+    <t>Admin clicks on "Add" button</t>
+  </si>
+  <si>
+    <t>Admin enters the desired values to the provided form</t>
+  </si>
+  <si>
+    <t>Admin clicks on add data button</t>
+  </si>
+  <si>
+    <t>Admin has entered any PO's or stock up's proof's transaction menu</t>
+  </si>
+  <si>
+    <t>Stock up's proof data values altered to values in the form</t>
+  </si>
+  <si>
+    <t>Admin clicks on "Edit" button</t>
+  </si>
+  <si>
+    <t>Admin enters desired values to the provided form</t>
+  </si>
+  <si>
+    <t>Admin clicks on "Edit" button inside action column</t>
+  </si>
+  <si>
+    <t>Admin chooses data to be edited</t>
+  </si>
+  <si>
+    <t>Admin has entered any stock up's proof transaction's menu</t>
+  </si>
+  <si>
+    <t>Chosen stock up's proof data deleted from database</t>
+  </si>
+  <si>
+    <t>Admin clicks on "Hapus" button inside action column</t>
+  </si>
+  <si>
+    <t>Admin chooses a data to be erased</t>
+  </si>
+  <si>
+    <t>Stock up's proof data detail with the matching transaction showed</t>
+  </si>
+  <si>
+    <t>Admin clicks on "Detail" button inside action column</t>
+  </si>
+  <si>
+    <t>Admin chooses a data which detail wanted to be seen</t>
+  </si>
+  <si>
+    <t>PO data values altered to values in the form</t>
+  </si>
+  <si>
+    <t>Admin has entered any PO transaction's menu</t>
+  </si>
+  <si>
+    <t>Chosen PO data deleted from database</t>
+  </si>
+  <si>
+    <t>PO data detail with the matching transaction showed</t>
+  </si>
+  <si>
+    <t>SKB - CMT stock up's proof data showed</t>
+  </si>
+  <si>
+    <t>Admin chooses SKB - CMT stock up's proof submenu</t>
+  </si>
+  <si>
+    <t>Admin chooses SKB - CMT menu</t>
+  </si>
+  <si>
+    <t>SKB - CMT PO data showed</t>
+  </si>
+  <si>
+    <t>Admin chooses SKB - CMT PO submenu</t>
+  </si>
+  <si>
+    <t>FB - SKB stock up's proof data showed</t>
+  </si>
+  <si>
+    <t>Admin chooses FB - SKB stock up's proof submenu</t>
+  </si>
+  <si>
+    <t>Admin chooses FB - SKB menu</t>
+  </si>
+  <si>
+    <t>FB - SKB PO data showed</t>
+  </si>
+  <si>
+    <t>Admin chooses FB - SKB PO submenu</t>
+  </si>
+  <si>
+    <t>Pre-production stock up's proof data showed</t>
+  </si>
+  <si>
+    <t>Admin chooses pre-production stock up's proof submenu</t>
+  </si>
+  <si>
+    <t>Admin chooses pre-production menu</t>
+  </si>
+  <si>
+    <t>Pre-production PO data showed</t>
+  </si>
+  <si>
+    <t>Admin chooses pre-production PO submenu</t>
+  </si>
+  <si>
+    <t>Purchase stock up's proof data showed</t>
+  </si>
+  <si>
+    <t>Admin chooses purchase stock up's proof submenu</t>
+  </si>
+  <si>
+    <t>Admin chooses purchase menu</t>
+  </si>
+  <si>
+    <t>Purchase PO data showed</t>
+  </si>
+  <si>
+    <t>Admin chooses purchase PO submenu</t>
   </si>
 </sst>
 </file>
@@ -435,9 +647,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,56 +706,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2408,6 +2629,170 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ERD"/>
+      <sheetName val="Use Case"/>
+      <sheetName val="Use Case (English)"/>
+      <sheetName val="Use Case Naration"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>UC1</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>See purchase PO data</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>UC2</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>See purchase stock up's proof data</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>UC3</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>See pre-production PO</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>UC4</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>See pre-production stock up's proof data</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>UC5</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>See FB - SKB PO data</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>UC6</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>See FB - SKB stock up's proof data</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>UC7</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>See SKB - CMT PO data</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>UC8</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>See SKB - CMT stock up's proof data</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>UC9</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>See PO detail</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>UC10</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Delete PO data</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>UC11</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Edit PO data</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>UC12</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>See stock up's proof detail</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>UC13</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Delete stock up's proof data</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>UC14</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Edit stock up's proof data</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>UC15</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Add data</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>UC16</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>See material stock</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>UC17</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>See production stock</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>UC18</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Create report</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2742,15 +3127,15 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2978,9 +3363,293 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="3.33203125" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
@@ -2993,1680 +3662,1685 @@
   <sheetData>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>1</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="22">
-        <v>1</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23">
-        <v>1</v>
-      </c>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23">
+      <c r="A21" s="8">
         <v>2</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="22">
-        <v>1</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
-        <v>1</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
-        <v>1</v>
-      </c>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11">
+      <c r="A32" s="4">
         <v>2</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10">
-        <v>1</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="19"/>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="21"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="22">
-        <v>1</v>
-      </c>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="7">
+        <v>1</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="21"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="23">
-        <v>1</v>
-      </c>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="8">
+        <v>1</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="23">
+      <c r="A43" s="8">
         <v>2</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="21"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="22">
-        <v>1</v>
-      </c>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="7">
+        <v>1</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="21"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="8" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="9"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="10">
-        <v>1</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="A51" s="3">
+        <v>1</v>
+      </c>
+      <c r="B51" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="19"/>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="9"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="11">
-        <v>1</v>
-      </c>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="4">
+        <v>1</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="21"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="11">
+      <c r="A54" s="4">
         <v>2</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="13"/>
+      <c r="C54" s="21"/>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="9"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="10">
-        <v>1</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="3">
+        <v>1</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="9"/>
+      <c r="C56" s="19"/>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="13"/>
+      <c r="C59" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="20" t="s">
+      <c r="B60" s="13"/>
+      <c r="C60" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="21"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="22">
-        <v>1</v>
-      </c>
-      <c r="B62" s="18" t="s">
+      <c r="A62" s="7">
+        <v>1</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="21"/>
+      <c r="C62" s="14"/>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="21"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="23">
-        <v>1</v>
-      </c>
-      <c r="B64" s="24" t="s">
+      <c r="A64" s="8">
+        <v>1</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="25"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="23">
+      <c r="A65" s="8">
         <v>2</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="25"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="21"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="22">
-        <v>1</v>
-      </c>
-      <c r="B67" s="18" t="s">
+      <c r="A67" s="7">
+        <v>1</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="21"/>
+      <c r="C67" s="14"/>
     </row>
     <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27"/>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="7" t="s">
+      <c r="B70" s="18"/>
+      <c r="C70" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="8" t="s">
+      <c r="B71" s="18"/>
+      <c r="C71" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="9"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="10">
-        <v>1</v>
-      </c>
-      <c r="B73" s="6" t="s">
+      <c r="A73" s="3">
+        <v>1</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="9"/>
+      <c r="C73" s="19"/>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="9"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
     </row>
     <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="11">
-        <v>1</v>
-      </c>
-      <c r="B75" s="12" t="s">
+      <c r="A75" s="4">
+        <v>1</v>
+      </c>
+      <c r="B75" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C75" s="13"/>
+      <c r="C75" s="21"/>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="11">
+      <c r="A76" s="4">
         <v>2</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="13"/>
+      <c r="C76" s="21"/>
     </row>
     <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="9"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
     </row>
     <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="10">
-        <v>1</v>
-      </c>
-      <c r="B78" s="6" t="s">
+      <c r="A78" s="3">
+        <v>1</v>
+      </c>
+      <c r="B78" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="9"/>
+      <c r="C78" s="19"/>
     </row>
     <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
     </row>
     <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19" t="s">
+      <c r="B81" s="13"/>
+      <c r="C81" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="20" t="s">
+      <c r="B82" s="13"/>
+      <c r="C82" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="21"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="22">
-        <v>1</v>
-      </c>
-      <c r="B84" s="18" t="s">
+      <c r="A84" s="7">
+        <v>1</v>
+      </c>
+      <c r="B84" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C84" s="21"/>
+      <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="21"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="23">
-        <v>1</v>
-      </c>
-      <c r="B86" s="24" t="s">
+      <c r="A86" s="8">
+        <v>1</v>
+      </c>
+      <c r="B86" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="25"/>
+      <c r="C86" s="16"/>
     </row>
     <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="23">
+      <c r="A87" s="8">
         <v>2</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C87" s="25"/>
+      <c r="C87" s="16"/>
     </row>
     <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="21"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="22">
-        <v>1</v>
-      </c>
-      <c r="B89" s="18" t="s">
+      <c r="A89" s="7">
+        <v>1</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C89" s="21"/>
+      <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="4"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="27"/>
     </row>
     <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="7" t="s">
+      <c r="B92" s="18"/>
+      <c r="C92" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="8" t="s">
+      <c r="B93" s="18"/>
+      <c r="C93" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="9"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19"/>
     </row>
     <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="10">
-        <v>1</v>
-      </c>
-      <c r="B95" s="6" t="s">
+      <c r="A95" s="3">
+        <v>1</v>
+      </c>
+      <c r="B95" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C95" s="9"/>
+      <c r="C95" s="19"/>
     </row>
     <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="10">
+      <c r="A96" s="3">
         <v>2</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C96" s="27"/>
+      <c r="C96" s="29"/>
     </row>
     <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="9"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19"/>
     </row>
     <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="11">
-        <v>1</v>
-      </c>
-      <c r="B98" s="12" t="s">
+      <c r="A98" s="4">
+        <v>1</v>
+      </c>
+      <c r="B98" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="13"/>
+      <c r="C98" s="21"/>
     </row>
     <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="11">
+      <c r="A99" s="4">
         <v>2</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C99" s="13"/>
+      <c r="C99" s="21"/>
     </row>
     <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="9"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="19"/>
     </row>
     <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="10">
-        <v>1</v>
-      </c>
-      <c r="B101" s="6" t="s">
+      <c r="A101" s="3">
+        <v>1</v>
+      </c>
+      <c r="B101" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C101" s="9"/>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="16"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="24"/>
     </row>
     <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="18"/>
-      <c r="C104" s="19" t="s">
+      <c r="B104" s="13"/>
+      <c r="C104" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B105" s="18"/>
-      <c r="C105" s="20" t="s">
+      <c r="B105" s="13"/>
+      <c r="C105" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="21"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="14"/>
     </row>
     <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="22">
-        <v>1</v>
-      </c>
-      <c r="B107" s="18" t="s">
+      <c r="A107" s="7">
+        <v>1</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C107" s="21"/>
+      <c r="C107" s="14"/>
     </row>
     <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="22">
+      <c r="A108" s="7">
         <v>2</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="21"/>
+      <c r="C108" s="14"/>
     </row>
     <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="21"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
     </row>
     <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="23">
-        <v>1</v>
-      </c>
-      <c r="B110" s="24" t="s">
+      <c r="A110" s="8">
+        <v>1</v>
+      </c>
+      <c r="B110" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C110" s="25"/>
+      <c r="C110" s="16"/>
     </row>
     <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="23">
+      <c r="A111" s="8">
         <v>2</v>
       </c>
-      <c r="B111" s="24" t="s">
+      <c r="B111" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C111" s="25"/>
+      <c r="C111" s="16"/>
     </row>
     <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="21"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="14"/>
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="22">
-        <v>1</v>
-      </c>
-      <c r="B113" s="18" t="s">
+      <c r="A113" s="7">
+        <v>1</v>
+      </c>
+      <c r="B113" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C113" s="21"/>
+      <c r="C113" s="14"/>
     </row>
     <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="4"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="27"/>
     </row>
     <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="7" t="s">
+      <c r="B116" s="18"/>
+      <c r="C116" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="8" t="s">
+      <c r="B117" s="18"/>
+      <c r="C117" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="9"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="19"/>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="10">
-        <v>1</v>
-      </c>
-      <c r="B119" s="6" t="s">
+      <c r="A119" s="3">
+        <v>1</v>
+      </c>
+      <c r="B119" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C119" s="9"/>
+      <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="10">
+      <c r="A120" s="3">
         <v>2</v>
       </c>
-      <c r="B120" s="26" t="s">
+      <c r="B120" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C120" s="27"/>
+      <c r="C120" s="29"/>
     </row>
     <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B121" s="6"/>
-      <c r="C121" s="9"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="11">
-        <v>1</v>
-      </c>
-      <c r="B122" s="12" t="s">
+      <c r="A122" s="4">
+        <v>1</v>
+      </c>
+      <c r="B122" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C122" s="13"/>
+      <c r="C122" s="21"/>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="11">
+      <c r="A123" s="4">
         <v>2</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C123" s="13"/>
+      <c r="C123" s="21"/>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="11">
+      <c r="A124" s="4">
         <v>3</v>
       </c>
-      <c r="B124" s="26" t="s">
+      <c r="B124" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C124" s="27"/>
+      <c r="C124" s="29"/>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="11">
+      <c r="A125" s="4">
         <v>4</v>
       </c>
-      <c r="B125" s="26" t="s">
+      <c r="B125" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C125" s="27"/>
+      <c r="C125" s="29"/>
     </row>
     <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="9"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="19"/>
     </row>
     <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="10">
-        <v>1</v>
-      </c>
-      <c r="B127" s="6" t="s">
+      <c r="A127" s="3">
+        <v>1</v>
+      </c>
+      <c r="B127" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C127" s="9"/>
+      <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B129" s="15"/>
-      <c r="C129" s="16"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="24"/>
     </row>
     <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="17" t="s">
+      <c r="A130" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B130" s="18"/>
-      <c r="C130" s="19" t="s">
+      <c r="B130" s="13"/>
+      <c r="C130" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="17" t="s">
+      <c r="A131" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B131" s="18"/>
-      <c r="C131" s="20" t="s">
+      <c r="B131" s="13"/>
+      <c r="C131" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="17" t="s">
+      <c r="A132" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="21"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="14"/>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="22">
-        <v>1</v>
-      </c>
-      <c r="B133" s="18" t="s">
+      <c r="A133" s="7">
+        <v>1</v>
+      </c>
+      <c r="B133" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C133" s="21"/>
+      <c r="C133" s="14"/>
     </row>
     <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="22">
+      <c r="A134" s="7">
         <v>2</v>
       </c>
-      <c r="B134" s="28" t="s">
+      <c r="B134" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C134" s="29"/>
+      <c r="C134" s="11"/>
     </row>
     <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B135" s="18"/>
-      <c r="C135" s="21"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="14"/>
     </row>
     <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="23">
-        <v>1</v>
-      </c>
-      <c r="B136" s="24" t="s">
+      <c r="A136" s="8">
+        <v>1</v>
+      </c>
+      <c r="B136" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C136" s="25"/>
+      <c r="C136" s="16"/>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="23">
+      <c r="A137" s="8">
         <v>2</v>
       </c>
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C137" s="25"/>
+      <c r="C137" s="16"/>
     </row>
     <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="17" t="s">
+      <c r="A138" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B138" s="18"/>
-      <c r="C138" s="21"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="14"/>
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="22">
-        <v>1</v>
-      </c>
-      <c r="B139" s="18" t="s">
+      <c r="A139" s="7">
+        <v>1</v>
+      </c>
+      <c r="B139" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C139" s="21"/>
+      <c r="C139" s="14"/>
     </row>
     <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="4"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="27"/>
     </row>
     <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B142" s="6"/>
-      <c r="C142" s="7" t="s">
+      <c r="B142" s="18"/>
+      <c r="C142" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B143" s="6"/>
-      <c r="C143" s="8" t="s">
+      <c r="B143" s="18"/>
+      <c r="C143" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="9"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="19"/>
     </row>
     <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="10">
-        <v>1</v>
-      </c>
-      <c r="B145" s="6" t="s">
+      <c r="A145" s="3">
+        <v>1</v>
+      </c>
+      <c r="B145" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C145" s="9"/>
+      <c r="C145" s="19"/>
     </row>
     <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="10">
+      <c r="A146" s="3">
         <v>2</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C146" s="9"/>
+      <c r="C146" s="19"/>
     </row>
     <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="9"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="19"/>
     </row>
     <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="11">
-        <v>1</v>
-      </c>
-      <c r="B148" s="12" t="s">
+      <c r="A148" s="4">
+        <v>1</v>
+      </c>
+      <c r="B148" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C148" s="13"/>
+      <c r="C148" s="21"/>
     </row>
     <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="11">
+      <c r="A149" s="4">
         <v>2</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C149" s="13"/>
+      <c r="C149" s="21"/>
     </row>
     <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B150" s="6"/>
-      <c r="C150" s="9"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="19"/>
     </row>
     <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="10">
-        <v>1</v>
-      </c>
-      <c r="B151" s="6" t="s">
+      <c r="A151" s="3">
+        <v>1</v>
+      </c>
+      <c r="B151" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C151" s="9"/>
+      <c r="C151" s="19"/>
     </row>
     <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B153" s="15"/>
-      <c r="C153" s="16"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="24"/>
     </row>
     <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="17" t="s">
+      <c r="A154" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B154" s="18"/>
-      <c r="C154" s="19" t="s">
+      <c r="B154" s="13"/>
+      <c r="C154" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B155" s="18"/>
-      <c r="C155" s="20" t="s">
+      <c r="B155" s="13"/>
+      <c r="C155" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="17" t="s">
+      <c r="A156" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B156" s="18"/>
-      <c r="C156" s="21"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="14"/>
     </row>
     <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="22">
-        <v>1</v>
-      </c>
-      <c r="B157" s="18" t="s">
+      <c r="A157" s="7">
+        <v>1</v>
+      </c>
+      <c r="B157" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C157" s="21"/>
+      <c r="C157" s="14"/>
     </row>
     <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="22">
+      <c r="A158" s="7">
         <v>2</v>
       </c>
-      <c r="B158" s="28" t="s">
+      <c r="B158" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C158" s="29"/>
+      <c r="C158" s="11"/>
     </row>
     <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B159" s="18"/>
-      <c r="C159" s="21"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="14"/>
     </row>
     <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="23">
-        <v>1</v>
-      </c>
-      <c r="B160" s="24" t="s">
+      <c r="A160" s="8">
+        <v>1</v>
+      </c>
+      <c r="B160" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C160" s="25"/>
+      <c r="C160" s="16"/>
     </row>
     <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="23">
+      <c r="A161" s="8">
         <v>2</v>
       </c>
-      <c r="B161" s="24" t="s">
+      <c r="B161" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C161" s="25"/>
+      <c r="C161" s="16"/>
     </row>
     <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="23">
+      <c r="A162" s="8">
         <v>3</v>
       </c>
-      <c r="B162" s="28" t="s">
+      <c r="B162" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C162" s="29"/>
+      <c r="C162" s="11"/>
     </row>
     <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="23">
+      <c r="A163" s="8">
         <v>4</v>
       </c>
-      <c r="B163" s="28" t="s">
+      <c r="B163" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C163" s="29"/>
+      <c r="C163" s="11"/>
     </row>
     <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="17" t="s">
+      <c r="A164" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B164" s="18"/>
-      <c r="C164" s="21"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="14"/>
     </row>
     <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="22">
-        <v>1</v>
-      </c>
-      <c r="B165" s="18" t="s">
+      <c r="A165" s="7">
+        <v>1</v>
+      </c>
+      <c r="B165" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C165" s="21"/>
+      <c r="C165" s="14"/>
     </row>
     <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="4"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="27"/>
     </row>
     <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B168" s="6"/>
-      <c r="C168" s="7" t="s">
+      <c r="B168" s="18"/>
+      <c r="C168" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B169" s="6"/>
-      <c r="C169" s="8" t="s">
+      <c r="B169" s="18"/>
+      <c r="C169" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="6"/>
-      <c r="C170" s="9"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="19"/>
     </row>
     <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="10">
-        <v>1</v>
-      </c>
-      <c r="B171" s="6" t="s">
+      <c r="A171" s="3">
+        <v>1</v>
+      </c>
+      <c r="B171" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C171" s="9"/>
+      <c r="C171" s="19"/>
     </row>
     <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="9"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="19"/>
     </row>
     <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="11">
-        <v>1</v>
-      </c>
-      <c r="B173" s="12" t="s">
+      <c r="A173" s="4">
+        <v>1</v>
+      </c>
+      <c r="B173" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C173" s="13"/>
+      <c r="C173" s="21"/>
     </row>
     <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="11">
+      <c r="A174" s="4">
         <v>2</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C174" s="13"/>
+      <c r="C174" s="21"/>
     </row>
     <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B175" s="6"/>
-      <c r="C175" s="9"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="19"/>
     </row>
     <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="10">
-        <v>1</v>
-      </c>
-      <c r="B176" s="6" t="s">
+      <c r="A176" s="3">
+        <v>1</v>
+      </c>
+      <c r="B176" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C176" s="9"/>
+      <c r="C176" s="19"/>
     </row>
     <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="178" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="14" t="s">
+      <c r="A178" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B178" s="15"/>
-      <c r="C178" s="16"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="24"/>
     </row>
     <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="17" t="s">
+      <c r="A179" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B179" s="18"/>
-      <c r="C179" s="19" t="s">
+      <c r="B179" s="13"/>
+      <c r="C179" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="17" t="s">
+      <c r="A180" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B180" s="18"/>
-      <c r="C180" s="20" t="s">
+      <c r="B180" s="13"/>
+      <c r="C180" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="17" t="s">
+      <c r="A181" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B181" s="18"/>
-      <c r="C181" s="21"/>
+      <c r="B181" s="13"/>
+      <c r="C181" s="14"/>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="22">
-        <v>1</v>
-      </c>
-      <c r="B182" s="18" t="s">
+      <c r="A182" s="7">
+        <v>1</v>
+      </c>
+      <c r="B182" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C182" s="21"/>
+      <c r="C182" s="14"/>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="17" t="s">
+      <c r="A183" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B183" s="18"/>
-      <c r="C183" s="21"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="14"/>
     </row>
     <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="23">
-        <v>1</v>
-      </c>
-      <c r="B184" s="24" t="s">
+      <c r="A184" s="8">
+        <v>1</v>
+      </c>
+      <c r="B184" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C184" s="25"/>
+      <c r="C184" s="16"/>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="23">
+      <c r="A185" s="8">
         <v>2</v>
       </c>
-      <c r="B185" s="24" t="s">
+      <c r="B185" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C185" s="25"/>
+      <c r="C185" s="16"/>
     </row>
     <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="17" t="s">
+      <c r="A186" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B186" s="18"/>
-      <c r="C186" s="21"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="14"/>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="22">
-        <v>1</v>
-      </c>
-      <c r="B187" s="18" t="s">
+      <c r="A187" s="7">
+        <v>1</v>
+      </c>
+      <c r="B187" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C187" s="21"/>
+      <c r="C187" s="14"/>
     </row>
     <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B189" s="3"/>
-      <c r="C189" s="4"/>
+      <c r="B189" s="26"/>
+      <c r="C189" s="27"/>
     </row>
     <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B190" s="6"/>
-      <c r="C190" s="7" t="s">
+      <c r="B190" s="18"/>
+      <c r="C190" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B191" s="6"/>
-      <c r="C191" s="8" t="s">
+      <c r="B191" s="18"/>
+      <c r="C191" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B192" s="6"/>
-      <c r="C192" s="9"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="19"/>
     </row>
     <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="10">
-        <v>1</v>
-      </c>
-      <c r="B193" s="6" t="s">
+      <c r="A193" s="3">
+        <v>1</v>
+      </c>
+      <c r="B193" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C193" s="9"/>
+      <c r="C193" s="19"/>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B194" s="6"/>
-      <c r="C194" s="9"/>
+      <c r="B194" s="18"/>
+      <c r="C194" s="19"/>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="11">
-        <v>1</v>
-      </c>
-      <c r="B195" s="12" t="s">
+      <c r="A195" s="4">
+        <v>1</v>
+      </c>
+      <c r="B195" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C195" s="13"/>
+      <c r="C195" s="21"/>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="11">
+      <c r="A196" s="4">
         <v>2</v>
       </c>
-      <c r="B196" s="12" t="s">
+      <c r="B196" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C196" s="13"/>
+      <c r="C196" s="21"/>
     </row>
     <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B197" s="6"/>
-      <c r="C197" s="9"/>
+      <c r="B197" s="18"/>
+      <c r="C197" s="19"/>
     </row>
     <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="10">
-        <v>1</v>
-      </c>
-      <c r="B198" s="6" t="s">
+      <c r="A198" s="3">
+        <v>1</v>
+      </c>
+      <c r="B198" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C198" s="9"/>
+      <c r="C198" s="19"/>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="14" t="s">
+      <c r="A200" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B200" s="15"/>
-      <c r="C200" s="16"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="24"/>
     </row>
     <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="17" t="s">
+      <c r="A201" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B201" s="18"/>
-      <c r="C201" s="19" t="s">
+      <c r="B201" s="13"/>
+      <c r="C201" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="17" t="s">
+      <c r="A202" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B202" s="18"/>
-      <c r="C202" s="20" t="s">
+      <c r="B202" s="13"/>
+      <c r="C202" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="17" t="s">
+      <c r="A203" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B203" s="18"/>
-      <c r="C203" s="21"/>
+      <c r="B203" s="13"/>
+      <c r="C203" s="14"/>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="22">
-        <v>1</v>
-      </c>
-      <c r="B204" s="18" t="s">
+      <c r="A204" s="7">
+        <v>1</v>
+      </c>
+      <c r="B204" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C204" s="21"/>
+      <c r="C204" s="14"/>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="17" t="s">
+      <c r="A205" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B205" s="18"/>
-      <c r="C205" s="21"/>
+      <c r="B205" s="13"/>
+      <c r="C205" s="14"/>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="23">
-        <v>1</v>
-      </c>
-      <c r="B206" s="24" t="s">
+      <c r="A206" s="8">
+        <v>1</v>
+      </c>
+      <c r="B206" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C206" s="25"/>
+      <c r="C206" s="16"/>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="23">
+      <c r="A207" s="8">
         <v>2</v>
       </c>
-      <c r="B207" s="28" t="s">
+      <c r="B207" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C207" s="29"/>
+      <c r="C207" s="11"/>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="23">
+      <c r="A208" s="8">
         <v>3</v>
       </c>
-      <c r="B208" s="28" t="s">
+      <c r="B208" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C208" s="29"/>
+      <c r="C208" s="11"/>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="17" t="s">
+      <c r="A209" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B209" s="18"/>
-      <c r="C209" s="21"/>
+      <c r="B209" s="13"/>
+      <c r="C209" s="14"/>
     </row>
     <row r="210" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="22">
-        <v>1</v>
-      </c>
-      <c r="B210" s="18" t="s">
+      <c r="A210" s="7">
+        <v>1</v>
+      </c>
+      <c r="B210" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C210" s="21"/>
+      <c r="C210" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="191">
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="B89:C89"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="A118:C118"/>
     <mergeCell ref="B119:C119"/>
@@ -4691,94 +5365,1951 @@
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="A103:C103"/>
     <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="B206:C206"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C212"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="G208" sqref="G208"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="3" width="57.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="str">
+        <f>'[1]Use Case (English)'!B4</f>
+        <v>See purchase PO data</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="1" t="str">
+        <f>'[1]Use Case (English)'!A4</f>
+        <v>UC1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="str">
+        <f>'[1]Use Case (English)'!B5</f>
+        <v>See purchase stock up's proof data</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5" t="str">
+        <f>'[1]Use Case (English)'!A5</f>
+        <v>UC2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>2</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="25" t="str">
+        <f>'[1]Use Case (English)'!B6</f>
+        <v>See pre-production PO</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="1" t="str">
+        <f>'[1]Use Case (English)'!A6</f>
+        <v>UC3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="21"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22" t="str">
+        <f>'[1]Use Case (English)'!B7</f>
+        <v>See pre-production stock up's proof data</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="5" t="str">
+        <f>'[1]Use Case (English)'!A7</f>
+        <v>UC4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>1</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8">
+        <v>1</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="16"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
+        <v>2</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="16"/>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <v>1</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="25" t="str">
+        <f>'[1]Use Case (English)'!B8</f>
+        <v>See FB - SKB PO data</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="1" t="str">
+        <f>'[1]Use Case (English)'!A8</f>
+        <v>UC5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>1</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="19"/>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>1</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="21"/>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>2</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="21"/>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>1</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="19"/>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="22" t="str">
+        <f>'[1]Use Case (English)'!B9</f>
+        <v>See FB - SKB stock up's proof data</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="5" t="str">
+        <f>'[1]Use Case (English)'!A9</f>
+        <v>UC6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7">
+        <v>1</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="8">
+        <v>1</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="16"/>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="8">
+        <v>2</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="16"/>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="7">
+        <v>1</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="25" t="str">
+        <f>'[1]Use Case (English)'!B10</f>
+        <v>See SKB - CMT PO data</v>
+      </c>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27"/>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="1" t="str">
+        <f>'[1]Use Case (English)'!A10</f>
+        <v>UC7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>1</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="19"/>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4">
+        <v>1</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="21"/>
+    </row>
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="4">
+        <v>2</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="21"/>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>1</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="19"/>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="22" t="str">
+        <f>'[1]Use Case (English)'!B11</f>
+        <v>See SKB - CMT stock up's proof data</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="5" t="str">
+        <f>'[1]Use Case (English)'!A11</f>
+        <v>UC8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
+    </row>
+    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="7">
+        <v>1</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="8">
+        <v>1</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="16"/>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="8">
+        <v>2</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="16"/>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="7">
+        <v>1</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="25" t="str">
+        <f>'[1]Use Case (English)'!B12</f>
+        <v>See PO detail</v>
+      </c>
+      <c r="B91" s="26"/>
+      <c r="C91" s="27"/>
+    </row>
+    <row r="92" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="1" t="str">
+        <f>'[1]Use Case (English)'!A12</f>
+        <v>UC9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="18"/>
+      <c r="C93" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19"/>
+    </row>
+    <row r="95" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <v>1</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="19"/>
+    </row>
+    <row r="96" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>2</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="29"/>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19"/>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="4">
+        <v>1</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="21"/>
+    </row>
+    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="4">
+        <v>2</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="21"/>
+    </row>
+    <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="18"/>
+      <c r="C100" s="19"/>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>1</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="19"/>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="22" t="str">
+        <f>'[1]Use Case (English)'!B13</f>
+        <v>Delete PO data</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="24"/>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="C104" s="5" t="str">
+        <f>'[1]Use Case (English)'!A13</f>
+        <v>UC10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="C106" s="14"/>
+    </row>
+    <row r="107" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="7">
+        <v>1</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="14"/>
+    </row>
+    <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="7">
+        <v>2</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" s="14"/>
+    </row>
+    <row r="109" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
+    </row>
+    <row r="110" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="8">
+        <v>1</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="16"/>
+    </row>
+    <row r="111" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="8">
+        <v>2</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="16"/>
+    </row>
+    <row r="112" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="C112" s="14"/>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="7">
+        <v>1</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" s="14"/>
+    </row>
+    <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="25" t="str">
+        <f>'[1]Use Case (English)'!B14</f>
+        <v>Edit PO data</v>
+      </c>
+      <c r="B115" s="26"/>
+      <c r="C115" s="27"/>
+    </row>
+    <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" s="18"/>
+      <c r="C116" s="1" t="str">
+        <f>'[1]Use Case (English)'!A14</f>
+        <v>UC11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117" s="18"/>
+      <c r="C117" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" s="18"/>
+      <c r="C118" s="19"/>
+    </row>
+    <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="3">
+        <v>1</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="19"/>
+    </row>
+    <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
+        <v>2</v>
+      </c>
+      <c r="B120" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" s="29"/>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" s="18"/>
+      <c r="C121" s="19"/>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="4">
+        <v>1</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="21"/>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="4">
+        <v>2</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123" s="21"/>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="4">
+        <v>3</v>
+      </c>
+      <c r="B124" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" s="29"/>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="4">
+        <v>4</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125" s="29"/>
+    </row>
+    <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" s="18"/>
+      <c r="C126" s="19"/>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
+        <v>1</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C127" s="19"/>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="22" t="str">
+        <f>'[1]Use Case (English)'!B15</f>
+        <v>See stock up's proof detail</v>
+      </c>
+      <c r="B129" s="23"/>
+      <c r="C129" s="24"/>
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130" s="13"/>
+      <c r="C130" s="5" t="str">
+        <f>'[1]Use Case (English)'!A15</f>
+        <v>UC12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131" s="13"/>
+      <c r="C131" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" s="13"/>
+      <c r="C132" s="14"/>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="7">
+        <v>1</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C133" s="14"/>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="7">
+        <v>2</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" s="11"/>
+    </row>
+    <row r="135" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" s="13"/>
+      <c r="C135" s="14"/>
+    </row>
+    <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="8">
+        <v>1</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C136" s="16"/>
+    </row>
+    <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="8">
+        <v>2</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137" s="16"/>
+    </row>
+    <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B138" s="13"/>
+      <c r="C138" s="14"/>
+    </row>
+    <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="7">
+        <v>1</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" s="14"/>
+    </row>
+    <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="25" t="str">
+        <f>'[1]Use Case (English)'!B16</f>
+        <v>Delete stock up's proof data</v>
+      </c>
+      <c r="B141" s="26"/>
+      <c r="C141" s="27"/>
+    </row>
+    <row r="142" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="18"/>
+      <c r="C142" s="1" t="str">
+        <f>'[1]Use Case (English)'!A16</f>
+        <v>UC13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B143" s="18"/>
+      <c r="C143" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B144" s="18"/>
+      <c r="C144" s="19"/>
+    </row>
+    <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="3">
+        <v>1</v>
+      </c>
+      <c r="B145" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C145" s="19"/>
+    </row>
+    <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="3">
+        <v>2</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C146" s="19"/>
+    </row>
+    <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" s="18"/>
+      <c r="C147" s="19"/>
+    </row>
+    <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="4">
+        <v>1</v>
+      </c>
+      <c r="B148" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C148" s="21"/>
+    </row>
+    <row r="149" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="4">
+        <v>2</v>
+      </c>
+      <c r="B149" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C149" s="21"/>
+    </row>
+    <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B150" s="18"/>
+      <c r="C150" s="19"/>
+    </row>
+    <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="3">
+        <v>1</v>
+      </c>
+      <c r="B151" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C151" s="19"/>
+    </row>
+    <row r="152" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="22" t="str">
+        <f>'[1]Use Case (English)'!B17</f>
+        <v>Edit stock up's proof data</v>
+      </c>
+      <c r="B153" s="23"/>
+      <c r="C153" s="24"/>
+    </row>
+    <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B154" s="13"/>
+      <c r="C154" s="5" t="str">
+        <f>'[1]Use Case (English)'!A17</f>
+        <v>UC14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B155" s="13"/>
+      <c r="C155" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B156" s="13"/>
+      <c r="C156" s="14"/>
+    </row>
+    <row r="157" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="7">
+        <v>1</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C157" s="14"/>
+    </row>
+    <row r="158" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="7">
+        <v>2</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C158" s="11"/>
+    </row>
+    <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" s="13"/>
+      <c r="C159" s="14"/>
+    </row>
+    <row r="160" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="8">
+        <v>1</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C160" s="16"/>
+    </row>
+    <row r="161" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="8">
+        <v>2</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C161" s="16"/>
+    </row>
+    <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="8">
+        <v>3</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C162" s="11"/>
+    </row>
+    <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="8">
+        <v>4</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C163" s="11"/>
+    </row>
+    <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B164" s="13"/>
+      <c r="C164" s="14"/>
+    </row>
+    <row r="165" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="7">
+        <v>1</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C165" s="14"/>
+    </row>
+    <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="25" t="str">
+        <f>'[1]Use Case (English)'!B18</f>
+        <v>Add data</v>
+      </c>
+      <c r="B167" s="26"/>
+      <c r="C167" s="27"/>
+    </row>
+    <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" s="18"/>
+      <c r="C168" s="1" t="str">
+        <f>'[1]Use Case (English)'!A18</f>
+        <v>UC15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B169" s="18"/>
+      <c r="C169" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B170" s="18"/>
+      <c r="C170" s="19"/>
+    </row>
+    <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="3">
+        <v>1</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C171" s="19"/>
+    </row>
+    <row r="172" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="3">
+        <v>2</v>
+      </c>
+      <c r="B172" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C172" s="29"/>
+    </row>
+    <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B173" s="18"/>
+      <c r="C173" s="19"/>
+    </row>
+    <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="4">
+        <v>1</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C174" s="21"/>
+    </row>
+    <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="4">
+        <v>2</v>
+      </c>
+      <c r="B175" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C175" s="29"/>
+    </row>
+    <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="4">
+        <v>3</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C176" s="21"/>
+    </row>
+    <row r="177" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B177" s="18"/>
+      <c r="C177" s="19"/>
+    </row>
+    <row r="178" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="32">
+        <v>1</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C178" s="30"/>
+    </row>
+    <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="22" t="str">
+        <f>'[1]Use Case (English)'!B19</f>
+        <v>See material stock</v>
+      </c>
+      <c r="B180" s="23"/>
+      <c r="C180" s="24"/>
+    </row>
+    <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B181" s="13"/>
+      <c r="C181" s="5" t="str">
+        <f>'[1]Use Case (English)'!A19</f>
+        <v>UC16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B182" s="13"/>
+      <c r="C182" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B183" s="13"/>
+      <c r="C183" s="14"/>
+    </row>
+    <row r="184" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="7">
+        <v>1</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C184" s="14"/>
+    </row>
+    <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B185" s="13"/>
+      <c r="C185" s="14"/>
+    </row>
+    <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="8">
+        <v>1</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C186" s="16"/>
+    </row>
+    <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="8">
+        <v>2</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C187" s="16"/>
+    </row>
+    <row r="188" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B188" s="13"/>
+      <c r="C188" s="14"/>
+    </row>
+    <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="7">
+        <v>1</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C189" s="14"/>
+    </row>
+    <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="191" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="25" t="str">
+        <f>'[1]Use Case (English)'!B20</f>
+        <v>See production stock</v>
+      </c>
+      <c r="B191" s="26"/>
+      <c r="C191" s="27"/>
+    </row>
+    <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B192" s="18"/>
+      <c r="C192" s="1" t="str">
+        <f>'[1]Use Case (English)'!A20</f>
+        <v>UC17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B193" s="18"/>
+      <c r="C193" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B194" s="18"/>
+      <c r="C194" s="19"/>
+    </row>
+    <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="3">
+        <v>1</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C195" s="19"/>
+    </row>
+    <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B196" s="18"/>
+      <c r="C196" s="19"/>
+    </row>
+    <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="4">
+        <v>1</v>
+      </c>
+      <c r="B197" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C197" s="21"/>
+    </row>
+    <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="4">
+        <v>2</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C198" s="21"/>
+    </row>
+    <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B199" s="18"/>
+      <c r="C199" s="19"/>
+    </row>
+    <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="3">
+        <v>1</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C200" s="19"/>
+    </row>
+    <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="22" t="str">
+        <f>'[1]Use Case (English)'!B21</f>
+        <v>Create report</v>
+      </c>
+      <c r="B202" s="23"/>
+      <c r="C202" s="24"/>
+    </row>
+    <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B203" s="13"/>
+      <c r="C203" s="5" t="str">
+        <f>'[1]Use Case (English)'!A21</f>
+        <v>UC18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B204" s="13"/>
+      <c r="C204" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B205" s="13"/>
+      <c r="C205" s="14"/>
+    </row>
+    <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="7">
+        <v>1</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C206" s="14"/>
+    </row>
+    <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B207" s="13"/>
+      <c r="C207" s="14"/>
+    </row>
+    <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="8">
+        <v>1</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C208" s="16"/>
+    </row>
+    <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="8">
+        <v>2</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C209" s="11"/>
+    </row>
+    <row r="210" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="8">
+        <v>3</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C210" s="11"/>
+    </row>
+    <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" s="13"/>
+      <c r="C211" s="14"/>
+    </row>
+    <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="7">
+        <v>1</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C212" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="193">
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
     <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
     <mergeCell ref="A97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:C83"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="B86:C86"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="B89:C89"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:B70"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="A74:C74"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>